--- a/src/web/files/storage/output.xlsx
+++ b/src/web/files/storage/output.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -435,33 +435,33 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10.125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="9.875" bestFit="1" customWidth="1" min="2" max="3"/>
-    <col width="4.25" bestFit="1" customWidth="1" min="4" max="5"/>
-    <col width="8.5" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="10.25" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="10.625" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="12.375" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="5.875" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="5.125" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="6.625" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="10.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="9.85546875" bestFit="1" customWidth="1" min="2" max="3"/>
+    <col width="4.28515625" bestFit="1" customWidth="1" min="4" max="5"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="10.5703125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="12.42578125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="5.85546875" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="5.140625" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="6.5703125" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="5" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="4.875" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="5.125" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="3.375" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="4.75" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="4.375" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="4.75" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="229.375" bestFit="1" customWidth="1" min="20" max="21"/>
-    <col width="255.625" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="4.85546875" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="5.140625" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="3.42578125" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="4.7109375" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="4.7109375" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="229.42578125" bestFit="1" customWidth="1" min="20" max="21"/>
+    <col width="255.5703125" bestFit="1" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -667,17 +667,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>כפיר</t>
+          <t>מרט</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>גרמן</t>
+          <t>זינגר</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>205583032</t>
+          <t>332689405</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -685,70 +685,65 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>זכר</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Ethiopian</t>
-        </is>
-      </c>
       <c r="I3" t="n">
-        <v>10000</v>
+        <v>11001</v>
       </c>
       <c r="J3" t="n">
         <v>55</v>
       </c>
       <c r="K3" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="L3" t="n">
         <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N3" t="n">
         <v>44</v>
       </c>
       <c r="O3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P3" t="n">
         <v>1.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="R3" t="n">
         <v>63</v>
       </c>
       <c r="S3" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Disruption_of_blood_formation, Dehydration, Infection, Kidney_disease, Muscle_diseases, Increased_consumption_of_meat, Malnutrition</t>
+          <t>Disruption_of_blood_formation, Iron_poisoning, Dehydration, Infection, Diseases_of_the_biliary_tract, Liver_disease, Kidney_disease, Muscle_diseases, Smokers, Overactive_thyroid_gland, Cancer, Increased_consumption_of_meat, Use_of_various_medications, Malnutrition</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>כדור 10 מ"ג של B12 ביום למשך חודש, כדור 5 מ"ג של חומצה פולית ביום למשך חודש, מנוחה מוחלטת בשכיבה, החזרת נוזלים בשתייה, אנטיביוטיקה ייעודית, איזון את רמות הסוכר בדם, שני כדורי 5 מ"ג של כורכום c3 של אלטמן ביום למשך חודש, לתאם פגישה עם תזונאי</t>
+          <t>כדור 10 מ"ג של B12 ביום למשך חודש, כדור 5 מ"ג של חומצה פולית ביום למשך חודש, להתפנות לבית החולים, מנוחה מוחלטת בשכיבה, החזרת נוזלים בשתייה, אנטיביוטיקה ייעודית, הפנייה לטיפול כירורגי, הפנייה לאבחנה ספציפית לצורך קביעת טיפול, איזון את רמות הסוכר בדם, שני כדורי 5 מ"ג של כורכום c3 של אלטמן ביום למשך חודש, להפסיק לעשן, Propylthiouracil להקטנת פעילות בלוטת התריס, אנטרקטיניב - Entrectinib, לתאם פגישה עם תזונאי, הפנייה לרופא המשפחה לצורך בדיקת התאמה בין התרופות</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neut - גבוה, RBC - גבוה, Urea - גבוה, Crtn - גבוה, </t>
+          <t xml:space="preserve">WBC - גבוה, Neut - גבוה, Lymph - גבוה, RBC - גבוה, HCT - גבוה, Urea - גבוה, Hb - גבוה, Crtn - גבוה, Iron - גבוה, HDL - גבוה, AP - גבוה, Smoking - גבוה, </t>
         </is>
       </c>
     </row>
@@ -768,16 +763,14 @@
           <t>205583032</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>28</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>זכר</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>No</t>
@@ -785,56 +778,402 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ethiopian</t>
+        </is>
+      </c>
       <c r="I4" t="n">
-        <v>10000</v>
+        <v>11001</v>
       </c>
       <c r="J4" t="n">
         <v>55</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="L4" t="n">
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
         <v>44</v>
       </c>
       <c r="O4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P4" t="n">
         <v>1.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="R4" t="n">
         <v>63</v>
       </c>
       <c r="S4" t="n">
+        <v>91</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Disruption_of_blood_formation, Iron_poisoning, Dehydration, Infection, Diseases_of_the_biliary_tract, Liver_disease, Kidney_disease, Muscle_diseases, Smokers, Overactive_thyroid_gland, Cancer, Increased_consumption_of_meat, Use_of_various_medications, Malnutrition</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>כדור 10 מ"ג של B12 ביום למשך חודש, כדור 5 מ"ג של חומצה פולית ביום למשך חודש, להתפנות לבית החולים, מנוחה מוחלטת בשכיבה, החזרת נוזלים בשתייה, אנטיביוטיקה ייעודית, הפנייה לטיפול כירורגי, הפנייה לאבחנה ספציפית לצורך קביעת טיפול, איזון את רמות הסוכר בדם, שני כדורי 5 מ"ג של כורכום c3 של אלטמן ביום למשך חודש, להפסיק לעשן, Propylthiouracil להקטנת פעילות בלוטת התריס, אנטרקטיניב - Entrectinib, לתאם פגישה עם תזונאי, הפנייה לרופא המשפחה לצורך בדיקת התאמה בין התרופות</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WBC - גבוה, Neut - גבוה, Lymph - גבוה, RBC - גבוה, HCT - גבוה, Urea - גבוה, Hb - גבוה, Crtn - גבוה, Iron - גבוה, AP - גבוה, </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>כפיר</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>גרמן</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>205583032</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>28</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>55</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>40</v>
+      </c>
+      <c r="N5" t="n">
+        <v>44</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q5" t="n">
         <v>80</v>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Disruption_of_blood_formation, Dehydration, Infection, Kidney_disease, Muscle_diseases, Increased_consumption_of_meat, Malnutrition</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>כדור 10 מ"ג של B12 ביום למשך חודש, כדור 5 מ"ג של חומצה פולית ביום למשך חודש, מנוחה מוחלטת בשכיבה, החזרת נוזלים בשתייה, אנטיביוטיקה ייעודית, איזון את רמות הסוכר בדם, שני כדורי 5 מ"ג של כורכום c3 של אלטמן ביום למשך חודש, לתאם פגישה עם תזונאי</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Neut - גבוה, RBC - גבוה, Urea - גבוה, Crtn - גבוה, HDL - גבוה, </t>
+      <c r="R5" t="n">
+        <v>63</v>
+      </c>
+      <c r="S5" t="n">
+        <v>80</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Disruption_of_blood_formation, Infection, Kidney_disease, Muscle_diseases, Increased_consumption_of_meat</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>כדור 10 מ"ג של B12 ביום למשך חודש, כדור 5 מ"ג של חומצה פולית ביום למשך חודש, אנטיביוטיקה ייעודית, איזון את רמות הסוכר בדם, שני כדורי 5 מ"ג של כורכום c3 של אלטמן ביום למשך חודש, לתאם פגישה עם תזונאי</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neut - גבוה, RBC - גבוה, Crtn - גבוה, HDL - גבוה, Smoking - גבוה, </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>kfir</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>german</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>205583032</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>120</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>זכר</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>11001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>55</v>
+      </c>
+      <c r="K6" t="n">
+        <v>53</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>55</v>
+      </c>
+      <c r="N6" t="n">
+        <v>44</v>
+      </c>
+      <c r="O6" t="n">
+        <v>19</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>161</v>
+      </c>
+      <c r="R6" t="n">
+        <v>63</v>
+      </c>
+      <c r="S6" t="n">
+        <v>91</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Disruption_of_blood_formation, Iron_poisoning, Dehydration, Infection, Diseases_of_the_biliary_tract, Liver_disease, Kidney_disease, Smokers, Overactive_thyroid_gland, Cancer, Use_of_various_medications, Malnutrition</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>כדור 10 מ"ג של B12 ביום למשך חודש, כדור 5 מ"ג של חומצה פולית ביום למשך חודש, להתפנות לבית החולים, מנוחה מוחלטת בשכיבה, החזרת נוזלים בשתייה, אנטיביוטיקה ייעודית, הפנייה לטיפול כירורגי, הפנייה לאבחנה ספציפית לצורך קביעת טיפול, איזון את רמות הסוכר בדם, להפסיק לעשן, Propylthiouracil להקטנת פעילות בלוטת התריס, אנטרקטיניב - Entrectinib, הפנייה לרופא המשפחה לצורך בדיקת התאמה בין התרופות, לתאם פגישה עם תזונאי</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WBC - גבוה, Neut - גבוה, Lymph - גבוה, RBC - גבוה, HCT - גבוה, Urea - גבוה, Hb - גבוה, Iron - גבוה, HDL - גבוה, AP - גבוה, </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>כפיר</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>גרמן</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>205583032</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>28</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>זכר</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>11001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>55</v>
+      </c>
+      <c r="K7" t="n">
+        <v>53</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>55</v>
+      </c>
+      <c r="N7" t="n">
+        <v>44</v>
+      </c>
+      <c r="O7" t="n">
+        <v>19</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>161</v>
+      </c>
+      <c r="R7" t="n">
+        <v>63</v>
+      </c>
+      <c r="S7" t="n">
+        <v>91</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Disruption_of_blood_formation, Iron_poisoning, Dehydration, Infection, Diseases_of_the_biliary_tract, Liver_disease, Kidney_disease, Muscle_diseases, Smokers, Overactive_thyroid_gland, Cancer, Increased_consumption_of_meat, Use_of_various_medications, Malnutrition</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>כדור 10 מ"ג של B12 ביום למשך חודש, כדור 5 מ"ג של חומצה פולית ביום למשך חודש, להתפנות לבית החולים, מנוחה מוחלטת בשכיבה, החזרת נוזלים בשתייה, אנטיביוטיקה ייעודית, הפנייה לטיפול כירורגי, הפנייה לאבחנה ספציפית לצורך קביעת טיפול, איזון את רמות הסוכר בדם, שני כדורי 5 מ"ג של כורכום c3 של אלטמן ביום למשך חודש, להפסיק לעשן, Propylthiouracil להקטנת פעילות בלוטת התריס, אנטרקטיניב - Entrectinib, לתאם פגישה עם תזונאי, הפנייה לרופא המשפחה לצורך בדיקת התאמה בין התרופות</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WBC - גבוה, Neut - גבוה, Lymph - גבוה, RBC - גבוה, HCT - גבוה, Urea - גבוה, Hb - גבוה, Crtn - גבוה, Iron - גבוה, HDL - גבוה, AP - גבוה, </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>כפיר</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>גרמן</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>205583032</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>28</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>55</v>
+      </c>
+      <c r="K8" t="n">
+        <v>40</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>40</v>
+      </c>
+      <c r="N8" t="n">
+        <v>44</v>
+      </c>
+      <c r="O8" t="n">
+        <v>15</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>80</v>
+      </c>
+      <c r="R8" t="n">
+        <v>63</v>
+      </c>
+      <c r="S8" t="n">
+        <v>80</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Disruption_of_blood_formation, Infection, Kidney_disease, Muscle_diseases, Increased_consumption_of_meat</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>כדור 10 מ"ג של B12 ביום למשך חודש, כדור 5 מ"ג של חומצה פולית ביום למשך חודש, אנטיביוטיקה ייעודית, איזון את רמות הסוכר בדם, שני כדורי 5 מ"ג של כורכום c3 של אלטמן ביום למשך חודש, לתאם פגישה עם תזונאי</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neut - גבוה, RBC - גבוה, Crtn - גבוה, HDL - גבוה, Smoking - גבוה, </t>
         </is>
       </c>
     </row>
